--- a/prototypes/post-run-analysis/EC/EC comparison consolidated.xlsx
+++ b/prototypes/post-run-analysis/EC/EC comparison consolidated.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DE8CF8-3F82-4447-A1CD-78045F1A2B26}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD424B6-D32B-46D6-8EE4-DE8D175DC392}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="25">
   <si>
     <t>501 cecq n</t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>metapro divergent</t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">averaged </t>
   </si>
 </sst>
 </file>
@@ -169,16 +175,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
@@ -201,16 +207,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -291,14 +297,13 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:ln w="9525">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
-                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -507,14 +512,13 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:ln w="9525">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
-                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -687,14 +691,13 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:ln w="9525">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
-                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -843,7 +846,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -886,6 +889,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -930,7 +947,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1042,7 +1059,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="306">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1053,7 +1070,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -1076,14 +1093,14 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1099,7 +1116,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -1119,22 +1136,17 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -1143,35 +1155,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="38100" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1180,33 +1202,29 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1228,15 +1246,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1246,7 +1262,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1255,14 +1271,13 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1271,17 +1286,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -1290,14 +1305,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1309,21 +1324,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1342,7 +1351,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1361,17 +1370,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="50000"/>
             <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -1380,17 +1389,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -1411,7 +1419,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -1419,7 +1427,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -1432,6 +1440,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1439,10 +1458,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -1457,13 +1476,13 @@
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
+    <cs:fontRef idx="major">
       <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1472,14 +1491,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1500,20 +1519,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1534,32 +1552,2811 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
+</file>
+
+<file path=xl/diagrams/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:colorsDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="accent1" pri="11200"/>
+  </dgm:catLst>
+  <dgm:styleLbl name="node0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+</dgm:colorsDef>
+</file>
+
+<file path=xl/diagrams/data1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:dataModel xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dgm:ptLst>
+    <dgm:pt modelId="{BA8453FC-B141-4A85-A1DA-F04967A2CB44}" type="doc">
+      <dgm:prSet loTypeId="urn:microsoft.com/office/officeart/2005/8/layout/rings+Icon" loCatId="relationship" qsTypeId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1" qsCatId="simple" csTypeId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2" csCatId="accent1" phldr="1"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{E569032E-17AB-4301-A19E-1003646FD84F}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA"/>
+            <a:t>MetaPro</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{25534B1B-1B77-45C9-8336-5FE32A5935CC}" type="parTrans" cxnId="{350F53A8-9DEC-4C39-92B8-B558A8B4467C}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-CA"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{70828E43-51E3-4F93-9678-2A3134050B42}" type="sibTrans" cxnId="{350F53A8-9DEC-4C39-92B8-B558A8B4467C}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-CA"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{11A8D31C-28DE-4C3F-8A8A-E5D5D675A9AD}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA"/>
+            <a:t>HUMAnN2</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{63AD0973-6C3D-48F3-A919-C02CFF678459}" type="parTrans" cxnId="{97A798E0-2FC7-4255-ACD6-E3D30C8DC179}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-CA"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{81196B2B-0AC3-4FE1-BC3B-FDAB23208436}" type="sibTrans" cxnId="{97A798E0-2FC7-4255-ACD6-E3D30C8DC179}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-CA"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F23EEFF1-FA8A-4C47-BC1C-10C4448B7F0D}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA"/>
+            <a:t>100</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{BEF4E2C8-7983-4816-BF4B-81F30CE5CD86}" type="parTrans" cxnId="{BA1E4732-B052-4350-AEF6-F61B4F16701D}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-CA"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{9F5DCB19-7D6D-4A1B-9C3F-10A51E3F6A35}" type="sibTrans" cxnId="{BA1E4732-B052-4350-AEF6-F61B4F16701D}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-CA"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{470C8499-3370-4C40-B9EE-A3D11C9261EC}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA"/>
+            <a:t>200</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{790E9FEE-C8BE-4C1B-A42E-634919CCECE9}" type="parTrans" cxnId="{DA28AFF8-D227-40AD-953A-4590CA4AA7F7}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-CA"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A0A58394-9F16-4F14-AE4A-A5348AF9B68C}" type="sibTrans" cxnId="{DA28AFF8-D227-40AD-953A-4590CA4AA7F7}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-CA"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{073D570F-4EA5-4D90-AE3C-0B2E89BA3A05}" type="pres">
+      <dgm:prSet presAssocID="{BA8453FC-B141-4A85-A1DA-F04967A2CB44}" presName="Name0" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:chMax val="7"/>
+          <dgm:dir/>
+          <dgm:resizeHandles val="exact"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C02E8F33-BC07-4D45-A4D9-E3FB8ADE2712}" type="pres">
+      <dgm:prSet presAssocID="{BA8453FC-B141-4A85-A1DA-F04967A2CB44}" presName="ellipse1" presStyleLbl="vennNode1" presStyleIdx="0" presStyleCnt="2">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{83EB4B86-BE39-4B9A-A477-14CD71078F32}" type="pres">
+      <dgm:prSet presAssocID="{BA8453FC-B141-4A85-A1DA-F04967A2CB44}" presName="ellipse2" presStyleLbl="vennNode1" presStyleIdx="1" presStyleCnt="2">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+  </dgm:ptLst>
+  <dgm:cxnLst>
+    <dgm:cxn modelId="{6929AB03-CA88-4C02-A7F1-3DF209AB3C71}" type="presOf" srcId="{F23EEFF1-FA8A-4C47-BC1C-10C4448B7F0D}" destId="{C02E8F33-BC07-4D45-A4D9-E3FB8ADE2712}" srcOrd="0" destOrd="1" presId="urn:microsoft.com/office/officeart/2005/8/layout/rings+Icon"/>
+    <dgm:cxn modelId="{2D67C803-50DE-4AC7-8978-A75180C481FE}" type="presOf" srcId="{E569032E-17AB-4301-A19E-1003646FD84F}" destId="{C02E8F33-BC07-4D45-A4D9-E3FB8ADE2712}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/rings+Icon"/>
+    <dgm:cxn modelId="{BA1E4732-B052-4350-AEF6-F61B4F16701D}" srcId="{E569032E-17AB-4301-A19E-1003646FD84F}" destId="{F23EEFF1-FA8A-4C47-BC1C-10C4448B7F0D}" srcOrd="0" destOrd="0" parTransId="{BEF4E2C8-7983-4816-BF4B-81F30CE5CD86}" sibTransId="{9F5DCB19-7D6D-4A1B-9C3F-10A51E3F6A35}"/>
+    <dgm:cxn modelId="{FEC0043C-F9A0-4524-98C2-9A02E9B1D899}" type="presOf" srcId="{470C8499-3370-4C40-B9EE-A3D11C9261EC}" destId="{83EB4B86-BE39-4B9A-A477-14CD71078F32}" srcOrd="0" destOrd="1" presId="urn:microsoft.com/office/officeart/2005/8/layout/rings+Icon"/>
+    <dgm:cxn modelId="{350F53A8-9DEC-4C39-92B8-B558A8B4467C}" srcId="{BA8453FC-B141-4A85-A1DA-F04967A2CB44}" destId="{E569032E-17AB-4301-A19E-1003646FD84F}" srcOrd="0" destOrd="0" parTransId="{25534B1B-1B77-45C9-8336-5FE32A5935CC}" sibTransId="{70828E43-51E3-4F93-9678-2A3134050B42}"/>
+    <dgm:cxn modelId="{349F82D9-7EBE-4124-9917-179334DBB74C}" type="presOf" srcId="{11A8D31C-28DE-4C3F-8A8A-E5D5D675A9AD}" destId="{83EB4B86-BE39-4B9A-A477-14CD71078F32}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/rings+Icon"/>
+    <dgm:cxn modelId="{97A798E0-2FC7-4255-ACD6-E3D30C8DC179}" srcId="{BA8453FC-B141-4A85-A1DA-F04967A2CB44}" destId="{11A8D31C-28DE-4C3F-8A8A-E5D5D675A9AD}" srcOrd="1" destOrd="0" parTransId="{63AD0973-6C3D-48F3-A919-C02CFF678459}" sibTransId="{81196B2B-0AC3-4FE1-BC3B-FDAB23208436}"/>
+    <dgm:cxn modelId="{C8A506E3-4EF1-43AB-8C86-7CD329DF1B65}" type="presOf" srcId="{BA8453FC-B141-4A85-A1DA-F04967A2CB44}" destId="{073D570F-4EA5-4D90-AE3C-0B2E89BA3A05}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/rings+Icon"/>
+    <dgm:cxn modelId="{DA28AFF8-D227-40AD-953A-4590CA4AA7F7}" srcId="{11A8D31C-28DE-4C3F-8A8A-E5D5D675A9AD}" destId="{470C8499-3370-4C40-B9EE-A3D11C9261EC}" srcOrd="0" destOrd="0" parTransId="{790E9FEE-C8BE-4C1B-A42E-634919CCECE9}" sibTransId="{A0A58394-9F16-4F14-AE4A-A5348AF9B68C}"/>
+    <dgm:cxn modelId="{46DCB708-005B-4732-86A4-786EB523F056}" type="presParOf" srcId="{073D570F-4EA5-4D90-AE3C-0B2E89BA3A05}" destId="{C02E8F33-BC07-4D45-A4D9-E3FB8ADE2712}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/rings+Icon"/>
+    <dgm:cxn modelId="{D5396DC5-4EE5-48E5-8A01-7269B189ABC0}" type="presParOf" srcId="{073D570F-4EA5-4D90-AE3C-0B2E89BA3A05}" destId="{83EB4B86-BE39-4B9A-A477-14CD71078F32}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/rings+Icon"/>
+  </dgm:cxnLst>
+  <dgm:bg/>
+  <dgm:whole/>
+  <dgm:extLst>
+    <a:ext uri="http://schemas.microsoft.com/office/drawing/2008/diagram">
+      <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" relId="rId6" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+    </a:ext>
+  </dgm:extLst>
+</dgm:dataModel>
+</file>
+
+<file path=xl/diagrams/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dsp:spTree>
+    <dsp:nvGrpSpPr>
+      <dsp:cNvPr id="0" name=""/>
+      <dsp:cNvGrpSpPr/>
+    </dsp:nvGrpSpPr>
+    <dsp:grpSpPr/>
+    <dsp:sp modelId="{C02E8F33-BC07-4D45-A4D9-E3FB8ADE2712}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1039764" y="0"/>
+          <a:ext cx="1645529" cy="1645645"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="50000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="68580" tIns="68580" rIns="68580" bIns="68580" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" defTabSz="800100">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1800" kern="1200"/>
+            <a:t>MetaPro</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1400" kern="1200"/>
+            <a:t>100</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1280746" y="240999"/>
+        <a:ext cx="1163565" cy="1163647"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{83EB4B86-BE39-4B9A-A477-14CD71078F32}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1886706" y="1097554"/>
+          <a:ext cx="1645529" cy="1645645"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="50000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="68580" tIns="68580" rIns="68580" bIns="68580" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" defTabSz="800100">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1800" kern="1200"/>
+            <a:t>HUMAnN2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1400" kern="1200"/>
+            <a:t>200</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2127688" y="1338553"/>
+        <a:ext cx="1163565" cy="1163647"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+  </dsp:spTree>
+</dsp:drawing>
+</file>
+
+<file path=xl/diagrams/layout1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:layoutDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/layout/rings+Icon">
+  <dgm:title val="Interconnected Rings"/>
+  <dgm:desc val="Use to show overlapping or interconnected ideas or concepts. The first seven lines of Level 1 text correspond with a circle. Unused text does not appear, but remains available if you switch layouts.  "/>
+  <dgm:catLst>
+    <dgm:cat type="relationship" pri="32000"/>
+    <dgm:cat type="officeonline" pri="6000"/>
+  </dgm:catLst>
+  <dgm:sampData useDef="1">
+    <dgm:dataModel>
+      <dgm:ptLst/>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:sampData>
+  <dgm:styleData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="10"/>
+        <dgm:pt modelId="20"/>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="30" srcId="0" destId="10" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="40" srcId="0" destId="20" srcOrd="1" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:styleData>
+  <dgm:clrData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="10"/>
+        <dgm:pt modelId="20"/>
+        <dgm:pt modelId="30"/>
+        <dgm:pt modelId="40"/>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="50" srcId="0" destId="10" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="60" srcId="0" destId="20" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="70" srcId="0" destId="30" srcOrd="2" destOrd="0"/>
+        <dgm:cxn modelId="80" srcId="0" destId="40" srcOrd="2" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:clrData>
+  <dgm:layoutNode name="Name0">
+    <dgm:varLst>
+      <dgm:chMax val="7"/>
+      <dgm:dir/>
+      <dgm:resizeHandles val="exact"/>
+    </dgm:varLst>
+    <dgm:choose name="Name1">
+      <dgm:if name="Name2" axis="ch" ptType="node" func="cnt" op="lt" val="1">
+        <dgm:alg type="composite"/>
+        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+          <dgm:adjLst/>
+        </dgm:shape>
+        <dgm:presOf/>
+        <dgm:constrLst/>
+        <dgm:ruleLst/>
+      </dgm:if>
+      <dgm:if name="Name3" axis="ch" ptType="node" func="cnt" op="equ" val="1">
+        <dgm:alg type="composite">
+          <dgm:param type="ar" val="1"/>
+        </dgm:alg>
+        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+          <dgm:adjLst/>
+        </dgm:shape>
+        <dgm:presOf/>
+        <dgm:constrLst>
+          <dgm:constr type="primFontSz" for="des" ptType="node" op="equ" val="65"/>
+          <dgm:constr type="l" for="ch" forName="ellipse1" refType="w" fact="0"/>
+          <dgm:constr type="t" for="ch" forName="ellipse1" refType="h" fact="0"/>
+          <dgm:constr type="w" for="ch" forName="ellipse1" refType="w"/>
+          <dgm:constr type="h" for="ch" forName="ellipse1" refType="h"/>
+        </dgm:constrLst>
+      </dgm:if>
+      <dgm:if name="Name4" axis="ch" ptType="node" func="cnt" op="equ" val="2">
+        <dgm:alg type="composite">
+          <dgm:param type="ar" val="0.9086"/>
+        </dgm:alg>
+        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+          <dgm:adjLst/>
+        </dgm:shape>
+        <dgm:presOf/>
+        <dgm:constrLst>
+          <dgm:constr type="primFontSz" for="des" ptType="node" op="equ" val="65"/>
+          <dgm:constr type="l" for="ch" forName="ellipse1" refType="w" fact="0"/>
+          <dgm:constr type="t" for="ch" forName="ellipse1" refType="h" fact="0"/>
+          <dgm:constr type="w" for="ch" forName="ellipse1" refType="w" fact="0.6602"/>
+          <dgm:constr type="h" for="ch" forName="ellipse1" refType="h" fact="0.5999"/>
+          <dgm:constr type="l" for="ch" forName="ellipse2" refType="w" fact="0.3398"/>
+          <dgm:constr type="t" for="ch" forName="ellipse2" refType="h" fact="0.4001"/>
+          <dgm:constr type="w" for="ch" forName="ellipse2" refType="w" fact="0.6602"/>
+          <dgm:constr type="h" for="ch" forName="ellipse2" refType="h" fact="0.5999"/>
+        </dgm:constrLst>
+      </dgm:if>
+      <dgm:if name="Name5" axis="ch" ptType="node" func="cnt" op="equ" val="3">
+        <dgm:alg type="composite">
+          <dgm:param type="ar" val="1.2171"/>
+        </dgm:alg>
+        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+          <dgm:adjLst/>
+        </dgm:shape>
+        <dgm:presOf/>
+        <dgm:constrLst>
+          <dgm:constr type="primFontSz" for="des" ptType="node" op="equ" val="65"/>
+          <dgm:constr type="l" for="ch" forName="ellipse1" refType="w" fact="0"/>
+          <dgm:constr type="t" for="ch" forName="ellipse1" refType="h" fact="0"/>
+          <dgm:constr type="w" for="ch" forName="ellipse1" refType="w" fact="0.4929"/>
+          <dgm:constr type="h" for="ch" forName="ellipse1" refType="h" fact="0.5999"/>
+          <dgm:constr type="l" for="ch" forName="ellipse2" refType="w" fact="0.2537"/>
+          <dgm:constr type="t" for="ch" forName="ellipse2" refType="h" fact="0.4001"/>
+          <dgm:constr type="w" for="ch" forName="ellipse2" refType="w" fact="0.4929"/>
+          <dgm:constr type="h" for="ch" forName="ellipse2" refType="h" fact="0.5999"/>
+          <dgm:constr type="l" for="ch" forName="ellipse3" refType="w" fact="0.5071"/>
+          <dgm:constr type="t" for="ch" forName="ellipse3" refType="h" fact="0"/>
+          <dgm:constr type="w" for="ch" forName="ellipse3" refType="w" fact="0.4929"/>
+          <dgm:constr type="h" for="ch" forName="ellipse3" refType="h" fact="0.5999"/>
+        </dgm:constrLst>
+      </dgm:if>
+      <dgm:if name="Name6" axis="ch" ptType="node" func="cnt" op="equ" val="4">
+        <dgm:alg type="composite">
+          <dgm:param type="ar" val="1.5255"/>
+        </dgm:alg>
+        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+          <dgm:adjLst/>
+        </dgm:shape>
+        <dgm:presOf/>
+        <dgm:constrLst>
+          <dgm:constr type="primFontSz" for="des" ptType="node" op="equ" val="65"/>
+          <dgm:constr type="l" for="ch" forName="ellipse1" refType="w" fact="0"/>
+          <dgm:constr type="t" for="ch" forName="ellipse1" refType="h" fact="0"/>
+          <dgm:constr type="w" for="ch" forName="ellipse1" refType="w" fact="0.3932"/>
+          <dgm:constr type="h" for="ch" forName="ellipse1" refType="h" fact="0.5999"/>
+          <dgm:constr type="l" for="ch" forName="ellipse2" refType="w" fact="0.2023"/>
+          <dgm:constr type="t" for="ch" forName="ellipse2" refType="h" fact="0.4001"/>
+          <dgm:constr type="w" for="ch" forName="ellipse2" refType="w" fact="0.3932"/>
+          <dgm:constr type="h" for="ch" forName="ellipse2" refType="h" fact="0.5999"/>
+          <dgm:constr type="l" for="ch" forName="ellipse3" refType="w" fact="0.4045"/>
+          <dgm:constr type="t" for="ch" forName="ellipse3" refType="h" fact="0"/>
+          <dgm:constr type="w" for="ch" forName="ellipse3" refType="w" fact="0.3932"/>
+          <dgm:constr type="h" for="ch" forName="ellipse3" refType="h" fact="0.5999"/>
+          <dgm:constr type="l" for="ch" forName="ellipse4" refType="w" fact="0.6068"/>
+          <dgm:constr type="t" for="ch" forName="ellipse4" refType="h" fact="0.4001"/>
+          <dgm:constr type="w" for="ch" forName="ellipse4" refType="w" fact="0.3932"/>
+          <dgm:constr type="h" for="ch" forName="ellipse4" refType="h" fact="0.5999"/>
+        </dgm:constrLst>
+      </dgm:if>
+      <dgm:if name="Name7" axis="ch" ptType="node" func="cnt" op="equ" val="5">
+        <dgm:alg type="composite">
+          <dgm:param type="ar" val="1.834"/>
+        </dgm:alg>
+        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+          <dgm:adjLst/>
+        </dgm:shape>
+        <dgm:presOf/>
+        <dgm:constrLst>
+          <dgm:constr type="primFontSz" for="des" ptType="node" op="equ" val="65"/>
+          <dgm:constr type="l" for="ch" forName="ellipse1" refType="w" fact="0"/>
+          <dgm:constr type="t" for="ch" forName="ellipse1" refType="h" fact="0"/>
+          <dgm:constr type="w" for="ch" forName="ellipse1" refType="w" fact="0.3271"/>
+          <dgm:constr type="h" for="ch" forName="ellipse1" refType="h" fact="0.5999"/>
+          <dgm:constr type="l" for="ch" forName="ellipse2" refType="w" fact="0.1682"/>
+          <dgm:constr type="t" for="ch" forName="ellipse2" refType="h" fact="0.4001"/>
+          <dgm:constr type="w" for="ch" forName="ellipse2" refType="w" fact="0.3271"/>
+          <dgm:constr type="h" for="ch" forName="ellipse2" refType="h" fact="0.5999"/>
+          <dgm:constr type="l" for="ch" forName="ellipse3" refType="w" fact="0.3365"/>
+          <dgm:constr type="t" for="ch" forName="ellipse3" refType="h" fact="0"/>
+          <dgm:constr type="w" for="ch" forName="ellipse3" refType="w" fact="0.3271"/>
+          <dgm:constr type="h" for="ch" forName="ellipse3" refType="h" fact="0.5999"/>
+          <dgm:constr type="l" for="ch" forName="ellipse4" refType="w" fact="0.5047"/>
+          <dgm:constr type="t" for="ch" forName="ellipse4" refType="h" fact="0.4001"/>
+          <dgm:constr type="w" for="ch" forName="ellipse4" refType="w" fact="0.3271"/>
+          <dgm:constr type="h" for="ch" forName="ellipse4" refType="h" fact="0.5999"/>
+          <dgm:constr type="l" for="ch" forName="ellipse5" refType="w" fact="0.6729"/>
+          <dgm:constr type="t" for="ch" forName="ellipse5" refType="h" fact="0"/>
+          <dgm:constr type="w" for="ch" forName="ellipse5" refType="w" fact="0.3271"/>
+          <dgm:constr type="h" for="ch" forName="ellipse5" refType="h" fact="0.5999"/>
+        </dgm:constrLst>
+      </dgm:if>
+      <dgm:if name="Name8" axis="ch" ptType="node" func="cnt" op="equ" val="6">
+        <dgm:alg type="composite">
+          <dgm:param type="ar" val="2.1873"/>
+        </dgm:alg>
+        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+          <dgm:adjLst/>
+        </dgm:shape>
+        <dgm:presOf/>
+        <dgm:constrLst>
+          <dgm:constr type="primFontSz" for="des" ptType="node" op="equ" val="65"/>
+          <dgm:constr type="l" for="ch" forName="ellipse1" refType="w" fact="0"/>
+          <dgm:constr type="t" for="ch" forName="ellipse1" refType="h" fact="0"/>
+          <dgm:constr type="w" for="ch" forName="ellipse1" refType="w" fact="0.278"/>
+          <dgm:constr type="h" for="ch" forName="ellipse1" refType="h" fact="0.6081"/>
+          <dgm:constr type="l" for="ch" forName="ellipse2" refType="w" fact="0.1444"/>
+          <dgm:constr type="t" for="ch" forName="ellipse2" refType="h" fact="0.3919"/>
+          <dgm:constr type="w" for="ch" forName="ellipse2" refType="w" fact="0.278"/>
+          <dgm:constr type="h" for="ch" forName="ellipse2" refType="h" fact="0.6081"/>
+          <dgm:constr type="l" for="ch" forName="ellipse3" refType="w" fact="0.2888"/>
+          <dgm:constr type="t" for="ch" forName="ellipse3" refType="h" fact="0"/>
+          <dgm:constr type="w" for="ch" forName="ellipse3" refType="w" fact="0.278"/>
+          <dgm:constr type="h" for="ch" forName="ellipse3" refType="h" fact="0.6081"/>
+          <dgm:constr type="l" for="ch" forName="ellipse4" refType="w" fact="0.4332"/>
+          <dgm:constr type="t" for="ch" forName="ellipse4" refType="h" fact="0.3919"/>
+          <dgm:constr type="w" for="ch" forName="ellipse4" refType="w" fact="0.278"/>
+          <dgm:constr type="h" for="ch" forName="ellipse4" refType="h" fact="0.6081"/>
+          <dgm:constr type="l" for="ch" forName="ellipse5" refType="w" fact="0.5776"/>
+          <dgm:constr type="t" for="ch" forName="ellipse5" refType="h" fact="0"/>
+          <dgm:constr type="w" for="ch" forName="ellipse5" refType="w" fact="0.278"/>
+          <dgm:constr type="h" for="ch" forName="ellipse5" refType="h" fact="0.6081"/>
+          <dgm:constr type="l" for="ch" forName="ellipse6" refType="w" fact="0.722"/>
+          <dgm:constr type="t" for="ch" forName="ellipse6" refType="h" fact="0.3919"/>
+          <dgm:constr type="w" for="ch" forName="ellipse6" refType="w" fact="0.278"/>
+          <dgm:constr type="h" for="ch" forName="ellipse6" refType="h" fact="0.6081"/>
+        </dgm:constrLst>
+      </dgm:if>
+      <dgm:else name="Name9">
+        <dgm:alg type="composite">
+          <dgm:param type="ar" val="2.3466"/>
+        </dgm:alg>
+        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+          <dgm:adjLst/>
+        </dgm:shape>
+        <dgm:presOf/>
+        <dgm:constrLst>
+          <dgm:constr type="primFontSz" for="des" ptType="node" op="equ" val="65"/>
+          <dgm:constr type="l" for="ch" forName="ellipse1" refType="w" fact="0"/>
+          <dgm:constr type="t" for="ch" forName="ellipse1" refType="h" fact="0"/>
+          <dgm:constr type="w" for="ch" forName="ellipse1" refType="w" fact="0.2455"/>
+          <dgm:constr type="h" for="ch" forName="ellipse1" refType="h" fact="0.5761"/>
+          <dgm:constr type="l" for="ch" forName="ellipse2" refType="w" fact="0.1257"/>
+          <dgm:constr type="t" for="ch" forName="ellipse2" refType="h" fact="0.4239"/>
+          <dgm:constr type="w" for="ch" forName="ellipse2" refType="w" fact="0.2455"/>
+          <dgm:constr type="h" for="ch" forName="ellipse2" refType="h" fact="0.5761"/>
+          <dgm:constr type="l" for="ch" forName="ellipse3" refType="w" fact="0.2515"/>
+          <dgm:constr type="t" for="ch" forName="ellipse3" refType="h" fact="0"/>
+          <dgm:constr type="w" for="ch" forName="ellipse3" refType="w" fact="0.2455"/>
+          <dgm:constr type="h" for="ch" forName="ellipse3" refType="h" fact="0.5761"/>
+          <dgm:constr type="l" for="ch" forName="ellipse4" refType="w" fact="0.3772"/>
+          <dgm:constr type="t" for="ch" forName="ellipse4" refType="h" fact="0.4239"/>
+          <dgm:constr type="w" for="ch" forName="ellipse4" refType="w" fact="0.2455"/>
+          <dgm:constr type="h" for="ch" forName="ellipse4" refType="h" fact="0.5761"/>
+          <dgm:constr type="l" for="ch" forName="ellipse5" refType="w" fact="0.503"/>
+          <dgm:constr type="t" for="ch" forName="ellipse5" refType="h" fact="0"/>
+          <dgm:constr type="w" for="ch" forName="ellipse5" refType="w" fact="0.2455"/>
+          <dgm:constr type="h" for="ch" forName="ellipse5" refType="h" fact="0.5761"/>
+          <dgm:constr type="l" for="ch" forName="ellipse6" refType="w" fact="0.6287"/>
+          <dgm:constr type="t" for="ch" forName="ellipse6" refType="h" fact="0.4239"/>
+          <dgm:constr type="w" for="ch" forName="ellipse6" refType="w" fact="0.2455"/>
+          <dgm:constr type="h" for="ch" forName="ellipse6" refType="h" fact="0.5761"/>
+          <dgm:constr type="l" for="ch" forName="ellipse7" refType="w" fact="0.7545"/>
+          <dgm:constr type="t" for="ch" forName="ellipse7" refType="h" fact="0"/>
+          <dgm:constr type="w" for="ch" forName="ellipse7" refType="w" fact="0.2455"/>
+          <dgm:constr type="h" for="ch" forName="ellipse7" refType="h" fact="0.5761"/>
+        </dgm:constrLst>
+      </dgm:else>
+    </dgm:choose>
+    <dgm:choose name="Name10">
+      <dgm:if name="Name11" axis="ch" ptType="node" func="cnt" op="gte" val="1">
+        <dgm:layoutNode name="ellipse1" styleLbl="vennNode1">
+          <dgm:varLst>
+            <dgm:bulletEnabled val="1"/>
+          </dgm:varLst>
+          <dgm:alg type="tx"/>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="ellipse" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:choose name="Name12">
+            <dgm:if name="Name13" func="var" arg="dir" op="equ" val="norm">
+              <dgm:presOf axis="ch desOrSelf" ptType="node node" st="1 1" cnt="1 0"/>
+            </dgm:if>
+            <dgm:else name="Name14">
+              <dgm:choose name="Name15">
+                <dgm:if name="Name16" axis="ch" ptType="node" func="cnt" op="equ" val="1">
+                  <dgm:presOf axis="ch desOrSelf" ptType="node node" st="1 1" cnt="1 0"/>
+                </dgm:if>
+                <dgm:if name="Name17" axis="ch" ptType="node" func="cnt" op="equ" val="2">
+                  <dgm:presOf axis="ch desOrSelf" ptType="node node" st="2 1" cnt="1 0"/>
+                </dgm:if>
+                <dgm:if name="Name18" axis="ch" ptType="node" func="cnt" op="equ" val="3">
+                  <dgm:presOf axis="ch desOrSelf" ptType="node node" st="3 1" cnt="1 0"/>
+                </dgm:if>
+                <dgm:if name="Name19" axis="ch" ptType="node" func="cnt" op="equ" val="4">
+                  <dgm:presOf axis="ch desOrSelf" ptType="node node" st="4 1" cnt="1 0"/>
+                </dgm:if>
+                <dgm:if name="Name20" axis="ch" ptType="node" func="cnt" op="equ" val="5">
+                  <dgm:presOf axis="ch desOrSelf" ptType="node node" st="5 1" cnt="1 0"/>
+                </dgm:if>
+                <dgm:if name="Name21" axis="ch" ptType="node" func="cnt" op="equ" val="6">
+                  <dgm:presOf axis="ch desOrSelf" ptType="node node" st="6 1" cnt="1 0"/>
+                </dgm:if>
+                <dgm:if name="Name22" axis="ch" ptType="node" func="cnt" op="gte" val="7">
+                  <dgm:presOf axis="ch desOrSelf" ptType="node node" st="7 1" cnt="1 0"/>
+                </dgm:if>
+                <dgm:else name="Name23"/>
+              </dgm:choose>
+            </dgm:else>
+          </dgm:choose>
+          <dgm:constrLst>
+            <dgm:constr type="lMarg" refType="primFontSz" fact="0.3"/>
+            <dgm:constr type="rMarg" refType="primFontSz" fact="0.3"/>
+            <dgm:constr type="tMarg" refType="primFontSz" fact="0.3"/>
+            <dgm:constr type="bMarg" refType="primFontSz" fact="0.3"/>
+          </dgm:constrLst>
+          <dgm:ruleLst>
+            <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+          </dgm:ruleLst>
+        </dgm:layoutNode>
+      </dgm:if>
+      <dgm:else name="Name24"/>
+    </dgm:choose>
+    <dgm:choose name="Name25">
+      <dgm:if name="Name26" axis="ch" ptType="node" func="cnt" op="gte" val="2">
+        <dgm:layoutNode name="ellipse2" styleLbl="vennNode1">
+          <dgm:varLst>
+            <dgm:bulletEnabled val="1"/>
+          </dgm:varLst>
+          <dgm:alg type="tx"/>
+          <dgm:choose name="Name27">
+            <dgm:if name="Name28" func="var" arg="dir" op="equ" val="norm">
+              <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="ellipse" r:blip="">
+                <dgm:adjLst/>
+              </dgm:shape>
+              <dgm:presOf axis="ch desOrSelf" ptType="node node" st="2 1" cnt="1 0"/>
+            </dgm:if>
+            <dgm:else name="Name29">
+              <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="ellipse" r:blip="" zOrderOff="-2">
+                <dgm:adjLst/>
+              </dgm:shape>
+              <dgm:choose name="Name30">
+                <dgm:if name="Name31" axis="ch" ptType="node" func="cnt" op="equ" val="2">
+                  <dgm:presOf axis="ch desOrSelf" ptType="node node" st="1 1" cnt="1 0"/>
+                </dgm:if>
+                <dgm:if name="Name32" axis="ch" ptType="node" func="cnt" op="equ" val="3">
+                  <dgm:presOf axis="ch desOrSelf" ptType="node node" st="2 1" cnt="1 0"/>
+                </dgm:if>
+                <dgm:if name="Name33" axis="ch" ptType="node" func="cnt" op="equ" val="4">
+                  <dgm:presOf axis="ch desOrSelf" ptType="node node" st="3 1" cnt="1 0"/>
+                </dgm:if>
+                <dgm:if name="Name34" axis="ch" ptType="node" func="cnt" op="equ" val="5">
+                  <dgm:presOf axis="ch desOrSelf" ptType="node node" st="4 1" cnt="1 0"/>
+                </dgm:if>
+                <dgm:if name="Name35" axis="ch" ptType="node" func="cnt" op="equ" val="6">
+                  <dgm:presOf axis="ch desOrSelf" ptType="node node" st="5 1" cnt="1 0"/>
+                </dgm:if>
+                <dgm:if name="Name36" axis="ch" ptType="node" func="cnt" op="gte" val="7">
+                  <dgm:presOf axis="ch desOrSelf" ptType="node node" st="6 1" cnt="1 0"/>
+                </dgm:if>
+                <dgm:else name="Name37"/>
+              </dgm:choose>
+            </dgm:else>
+          </dgm:choose>
+          <dgm:constrLst>
+            <dgm:constr type="lMarg" refType="primFontSz" fact="0.3"/>
+            <dgm:constr type="rMarg" refType="primFontSz" fact="0.3"/>
+            <dgm:constr type="tMarg" refType="primFontSz" fact="0.3"/>
+            <dgm:constr type="bMarg" refType="primFontSz" fact="0.3"/>
+          </dgm:constrLst>
+          <dgm:ruleLst>
+            <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+          </dgm:ruleLst>
+        </dgm:layoutNode>
+      </dgm:if>
+      <dgm:else name="Name38"/>
+    </dgm:choose>
+    <dgm:choose name="Name39">
+      <dgm:if name="Name40" axis="ch" ptType="node" func="cnt" op="gte" val="3">
+        <dgm:layoutNode name="ellipse3" styleLbl="vennNode1">
+          <dgm:varLst>
+            <dgm:bulletEnabled val="1"/>
+          </dgm:varLst>
+          <dgm:alg type="tx"/>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="ellipse" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:choose name="Name41">
+            <dgm:if name="Name42" func="var" arg="dir" op="equ" val="norm">
+              <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="ellipse" r:blip="">
+                <dgm:adjLst/>
+              </dgm:shape>
+              <dgm:presOf axis="ch desOrSelf" ptType="node node" st="3 1" cnt="1 0"/>
+            </dgm:if>
+            <dgm:else name="Name43">
+              <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="ellipse" r:blip="" zOrderOff="-4">
+                <dgm:adjLst/>
+              </dgm:shape>
+              <dgm:choose name="Name44">
+                <dgm:if name="Name45" axis="ch" ptType="node" func="cnt" op="equ" val="3">
+                  <dgm:presOf axis="ch desOrSelf" ptType="node node" st="1 1" cnt="1 0"/>
+                </dgm:if>
+                <dgm:if name="Name46" axis="ch" ptType="node" func="cnt" op="equ" val="4">
+                  <dgm:presOf axis="ch desOrSelf" ptType="node node" st="2 1" cnt="1 0"/>
+                </dgm:if>
+                <dgm:if name="Name47" axis="ch" ptType="node" func="cnt" op="equ" val="5">
+                  <dgm:presOf axis="ch desOrSelf" ptType="node node" st="3 1" cnt="1 0"/>
+                </dgm:if>
+                <dgm:if name="Name48" axis="ch" ptType="node" func="cnt" op="equ" val="6">
+                  <dgm:presOf axis="ch desOrSelf" ptType="node node" st="4 1" cnt="1 0"/>
+                </dgm:if>
+                <dgm:if name="Name49" axis="ch" ptType="node" func="cnt" op="gte" val="7">
+                  <dgm:presOf axis="ch desOrSelf" ptType="node node" st="5 1" cnt="1 0"/>
+                </dgm:if>
+                <dgm:else name="Name50"/>
+              </dgm:choose>
+            </dgm:else>
+          </dgm:choose>
+          <dgm:constrLst>
+            <dgm:constr type="lMarg" refType="primFontSz" fact="0.3"/>
+            <dgm:constr type="rMarg" refType="primFontSz" fact="0.3"/>
+            <dgm:constr type="tMarg" refType="primFontSz" fact="0.3"/>
+            <dgm:constr type="bMarg" refType="primFontSz" fact="0.3"/>
+          </dgm:constrLst>
+          <dgm:ruleLst>
+            <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+          </dgm:ruleLst>
+        </dgm:layoutNode>
+      </dgm:if>
+      <dgm:else name="Name51"/>
+    </dgm:choose>
+    <dgm:choose name="Name52">
+      <dgm:if name="Name53" axis="ch" ptType="node" func="cnt" op="gte" val="4">
+        <dgm:layoutNode name="ellipse4" styleLbl="vennNode1">
+          <dgm:varLst>
+            <dgm:bulletEnabled val="1"/>
+          </dgm:varLst>
+          <dgm:alg type="tx"/>
+          <dgm:choose name="Name54">
+            <dgm:if name="Name55" func="var" arg="dir" op="equ" val="norm">
+              <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="ellipse" r:blip="">
+                <dgm:adjLst/>
+              </dgm:shape>
+              <dgm:presOf axis="ch desOrSelf" ptType="node node" st="4 1" cnt="1 0"/>
+            </dgm:if>
+            <dgm:else name="Name56">
+              <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="ellipse" r:blip="" zOrderOff="-6">
+                <dgm:adjLst/>
+              </dgm:shape>
+              <dgm:choose name="Name57">
+                <dgm:if name="Name58" axis="ch" ptType="node" func="cnt" op="equ" val="4">
+                  <dgm:presOf axis="ch desOrSelf" ptType="node node" st="1 1" cnt="1 0"/>
+                </dgm:if>
+                <dgm:if name="Name59" axis="ch" ptType="node" func="cnt" op="equ" val="5">
+                  <dgm:presOf axis="ch desOrSelf" ptType="node node" st="2 1" cnt="1 0"/>
+                </dgm:if>
+                <dgm:if name="Name60" axis="ch" ptType="node" func="cnt" op="equ" val="6">
+                  <dgm:presOf axis="ch desOrSelf" ptType="node node" st="3 1" cnt="1 0"/>
+                </dgm:if>
+                <dgm:if name="Name61" axis="ch" ptType="node" func="cnt" op="gte" val="7">
+                  <dgm:presOf axis="ch desOrSelf" ptType="node node" st="4 1" cnt="1 0"/>
+                </dgm:if>
+                <dgm:else name="Name62"/>
+              </dgm:choose>
+            </dgm:else>
+          </dgm:choose>
+          <dgm:constrLst>
+            <dgm:constr type="lMarg" refType="primFontSz" fact="0.3"/>
+            <dgm:constr type="rMarg" refType="primFontSz" fact="0.3"/>
+            <dgm:constr type="tMarg" refType="primFontSz" fact="0.3"/>
+            <dgm:constr type="bMarg" refType="primFontSz" fact="0.3"/>
+          </dgm:constrLst>
+          <dgm:ruleLst>
+            <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+          </dgm:ruleLst>
+        </dgm:layoutNode>
+      </dgm:if>
+      <dgm:else name="Name63"/>
+    </dgm:choose>
+    <dgm:choose name="Name64">
+      <dgm:if name="Name65" axis="ch" ptType="node" func="cnt" op="gte" val="5">
+        <dgm:layoutNode name="ellipse5" styleLbl="vennNode1">
+          <dgm:varLst>
+            <dgm:bulletEnabled val="1"/>
+          </dgm:varLst>
+          <dgm:alg type="tx"/>
+          <dgm:choose name="Name66">
+            <dgm:if name="Name67" func="var" arg="dir" op="equ" val="norm">
+              <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="ellipse" r:blip="">
+                <dgm:adjLst/>
+              </dgm:shape>
+              <dgm:presOf axis="ch desOrSelf" ptType="node node" st="5 1" cnt="1 0"/>
+            </dgm:if>
+            <dgm:else name="Name68">
+              <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="ellipse" r:blip="" zOrderOff="-8">
+                <dgm:adjLst/>
+              </dgm:shape>
+              <dgm:choose name="Name69">
+                <dgm:if name="Name70" axis="ch" ptType="node" func="cnt" op="equ" val="5">
+                  <dgm:presOf axis="ch desOrSelf" ptType="node node" st="1 1" cnt="1 0"/>
+                </dgm:if>
+                <dgm:if name="Name71" axis="ch" ptType="node" func="cnt" op="equ" val="6">
+                  <dgm:presOf axis="ch desOrSelf" ptType="node node" st="2 1" cnt="1 0"/>
+                </dgm:if>
+                <dgm:if name="Name72" axis="ch" ptType="node" func="cnt" op="gte" val="7">
+                  <dgm:presOf axis="ch desOrSelf" ptType="node node" st="3 1" cnt="1 0"/>
+                </dgm:if>
+                <dgm:else name="Name73"/>
+              </dgm:choose>
+            </dgm:else>
+          </dgm:choose>
+          <dgm:constrLst>
+            <dgm:constr type="lMarg" refType="primFontSz" fact="0.3"/>
+            <dgm:constr type="rMarg" refType="primFontSz" fact="0.3"/>
+            <dgm:constr type="tMarg" refType="primFontSz" fact="0.3"/>
+            <dgm:constr type="bMarg" refType="primFontSz" fact="0.3"/>
+          </dgm:constrLst>
+          <dgm:ruleLst>
+            <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+          </dgm:ruleLst>
+        </dgm:layoutNode>
+      </dgm:if>
+      <dgm:else name="Name74"/>
+    </dgm:choose>
+    <dgm:choose name="Name75">
+      <dgm:if name="Name76" axis="ch" ptType="node" func="cnt" op="gte" val="6">
+        <dgm:layoutNode name="ellipse6" styleLbl="vennNode1">
+          <dgm:varLst>
+            <dgm:bulletEnabled val="1"/>
+          </dgm:varLst>
+          <dgm:alg type="tx"/>
+          <dgm:choose name="Name77">
+            <dgm:if name="Name78" func="var" arg="dir" op="equ" val="norm">
+              <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="ellipse" r:blip="">
+                <dgm:adjLst/>
+              </dgm:shape>
+              <dgm:presOf axis="ch desOrSelf" ptType="node node" st="6 1" cnt="1 0"/>
+            </dgm:if>
+            <dgm:else name="Name79">
+              <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="ellipse" r:blip="" zOrderOff="-10">
+                <dgm:adjLst/>
+              </dgm:shape>
+              <dgm:choose name="Name80">
+                <dgm:if name="Name81" axis="ch" ptType="node" func="cnt" op="equ" val="6">
+                  <dgm:presOf axis="ch desOrSelf" ptType="node node" st="1 1" cnt="1 0"/>
+                </dgm:if>
+                <dgm:if name="Name82" axis="ch" ptType="node" func="cnt" op="gte" val="7">
+                  <dgm:presOf axis="ch desOrSelf" ptType="node node" st="2 1" cnt="1 0"/>
+                </dgm:if>
+                <dgm:else name="Name83"/>
+              </dgm:choose>
+            </dgm:else>
+          </dgm:choose>
+          <dgm:constrLst>
+            <dgm:constr type="lMarg" refType="primFontSz" fact="0.3"/>
+            <dgm:constr type="rMarg" refType="primFontSz" fact="0.3"/>
+            <dgm:constr type="tMarg" refType="primFontSz" fact="0.3"/>
+            <dgm:constr type="bMarg" refType="primFontSz" fact="0.3"/>
+          </dgm:constrLst>
+          <dgm:ruleLst>
+            <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+          </dgm:ruleLst>
+        </dgm:layoutNode>
+      </dgm:if>
+      <dgm:else name="Name84"/>
+    </dgm:choose>
+    <dgm:choose name="Name85">
+      <dgm:if name="Name86" axis="ch" ptType="node" func="cnt" op="gte" val="7">
+        <dgm:layoutNode name="ellipse7" styleLbl="vennNode1">
+          <dgm:varLst>
+            <dgm:bulletEnabled val="1"/>
+          </dgm:varLst>
+          <dgm:alg type="tx"/>
+          <dgm:choose name="Name87">
+            <dgm:if name="Name88" func="var" arg="dir" op="equ" val="norm">
+              <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="ellipse" r:blip="">
+                <dgm:adjLst/>
+              </dgm:shape>
+              <dgm:presOf axis="ch desOrSelf" ptType="node node" st="7 1" cnt="1 0"/>
+            </dgm:if>
+            <dgm:else name="Name89">
+              <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="ellipse" r:blip="" zOrderOff="-12">
+                <dgm:adjLst/>
+              </dgm:shape>
+              <dgm:presOf axis="ch desOrSelf" ptType="node node" st="1 1" cnt="1 0"/>
+            </dgm:else>
+          </dgm:choose>
+          <dgm:constrLst>
+            <dgm:constr type="lMarg" refType="primFontSz" fact="0.3"/>
+            <dgm:constr type="rMarg" refType="primFontSz" fact="0.3"/>
+            <dgm:constr type="tMarg" refType="primFontSz" fact="0.3"/>
+            <dgm:constr type="bMarg" refType="primFontSz" fact="0.3"/>
+          </dgm:constrLst>
+          <dgm:ruleLst>
+            <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+          </dgm:ruleLst>
+        </dgm:layoutNode>
+      </dgm:if>
+      <dgm:else name="Name90"/>
+    </dgm:choose>
+  </dgm:layoutNode>
+</dgm:layoutDef>
+</file>
+
+<file path=xl/diagrams/quickStyle1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="simple" pri="10100"/>
+  </dgm:catLst>
+  <dgm:scene3d>
+    <a:camera prst="orthographicFront"/>
+    <a:lightRig rig="threePt" dir="t"/>
+  </dgm:scene3d>
+  <dgm:styleLbl name="node0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="tx1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+</dgm:styleDef>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>638174</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>942974</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>166686</xdr:rowOff>
+      <xdr:rowOff>80961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1579,6 +4376,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagram 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06C40E3B-89B9-45B5-AEB3-A4FA140A24C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+          <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId2" r:lo="rId3" r:qs="rId4" r:cs="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1850,10 +4683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2540,6 +5373,59 @@
         <v>299</v>
       </c>
     </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29">
+        <f>B3+B5+B7+B9+B11+B13+B15+B17+B19+B21+B23+B25</f>
+        <v>3742</v>
+      </c>
+      <c r="C29">
+        <f>SUM(C2:C24)</f>
+        <v>2446</v>
+      </c>
+      <c r="D29">
+        <f>SUM(D2:D25)</f>
+        <v>3529</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <f>B29/12</f>
+        <v>311.83333333333331</v>
+      </c>
+      <c r="C34">
+        <f>C29/12</f>
+        <v>203.83333333333334</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <f>B34</f>
+        <v>311.83333333333331</v>
+      </c>
+      <c r="D35">
+        <f>D29/12</f>
+        <v>294.08333333333331</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
